--- a/Results/2021.03.12-22.56-Inviscid.xlsx
+++ b/Results/2021.03.12-22.56-Inviscid.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>L_D</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>s_l</t>
+  </si>
+  <si>
+    <t>Cp_base</t>
+  </si>
+  <si>
+    <t>P_base</t>
+  </si>
+  <si>
+    <t>D_base</t>
+  </si>
+  <si>
+    <t>S_base</t>
   </si>
 </sst>
 </file>
@@ -378,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,13 +401,13 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>4.2388944945773</v>
+        <v>4.23889475933234</v>
       </c>
       <c r="C1">
-        <v>3.515571653668584</v>
+        <v>3.513981633762941</v>
       </c>
       <c r="D1">
-        <v>3.797849597481796</v>
+        <v>3.796717415490777</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -403,13 +415,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3215827.793580584</v>
+        <v>3215827.812207432</v>
       </c>
       <c r="C2">
-        <v>3201591.000171713</v>
+        <v>3201556.833536636</v>
       </c>
       <c r="D2">
-        <v>3207686.080767967</v>
+        <v>3207664.860772286</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -417,13 +429,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>758647.7553745446</v>
+        <v>758647.7123848083</v>
       </c>
       <c r="C3">
-        <v>910688.5922324399</v>
+        <v>911090.9410497559</v>
       </c>
       <c r="D3">
-        <v>844605.8745704035</v>
+        <v>844852.1471955932</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -431,13 +443,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.08747465029848968</v>
+        <v>0.08747465080516391</v>
       </c>
       <c r="C4">
-        <v>0.08708739121474807</v>
+        <v>0.08708646183834887</v>
       </c>
       <c r="D4">
-        <v>0.08725318524288687</v>
+        <v>0.08725260803172362</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -445,13 +457,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.02063619427433109</v>
+        <v>0.020636193104955</v>
       </c>
       <c r="C5">
-        <v>0.02477190050268789</v>
+        <v>0.02478284490778414</v>
       </c>
       <c r="D5">
-        <v>0.02297436562541629</v>
+        <v>0.02298106455743298</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -473,13 +485,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>12509.62132208271</v>
+        <v>12509.61944746436</v>
       </c>
       <c r="C7">
-        <v>12509.62132208271</v>
+        <v>12509.61944746436</v>
       </c>
       <c r="D7">
-        <v>12509.62132208271</v>
+        <v>12509.61944746436</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -487,13 +499,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.08000000010565653</v>
+        <v>0.07999998811732655</v>
       </c>
       <c r="C8">
-        <v>0.08000000010565653</v>
+        <v>0.07999998811732655</v>
       </c>
       <c r="D8">
-        <v>0.08000000010565653</v>
+        <v>0.07999998811732655</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -536,6 +548,62 @@
       </c>
       <c r="D11">
         <v>0.4258625350564291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>-0.04297219340437737</v>
+      </c>
+      <c r="C12">
+        <v>-0.04297219340437737</v>
+      </c>
+      <c r="D12">
+        <v>-0.04297219340437737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>179.4863027032873</v>
+      </c>
+      <c r="C13">
+        <v>179.4863027032873</v>
+      </c>
+      <c r="D13">
+        <v>179.4863027032873</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>37627.68081321547</v>
+      </c>
+      <c r="C14">
+        <v>37627.68081321547</v>
+      </c>
+      <c r="D14">
+        <v>37627.68081321547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>209.640960042609</v>
+      </c>
+      <c r="C15">
+        <v>209.640960042609</v>
+      </c>
+      <c r="D15">
+        <v>209.640960042609</v>
       </c>
     </row>
   </sheetData>
